--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C55572-7EFB-453E-9211-BB210ADF7991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF5059-8203-4060-A569-B9A80450CF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="想法" sheetId="3" r:id="rId4"/>
     <sheet name="资产网址" sheetId="4" r:id="rId5"/>
     <sheet name="灵感" sheetId="5" r:id="rId6"/>
+    <sheet name="版本管理" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="186">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,6 +859,53 @@
   </si>
   <si>
     <t>比如一个武侠角色,防御式或反击式技能"出招吧!",攻击型技能"接招!",强力技能(大威天龙)"去!",血量特别低的时候换成嘶吼"大!威!天!龙!"(而且可能伴随技能伤害提升的效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无代码/低代码开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏可视化制作工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易 clicli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心动 星火编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameceator</t>
+  </si>
+  <si>
+    <t>唤镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置至少填写4个字符的提交说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置"_"下划线开头的文件夹会自动忽略?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏开发的版本管理中,相比SVN没有优势.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +977,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF18191C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -951,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,6 +1026,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1318,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1775,6 +1840,41 @@
       </c>
       <c r="C40" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2206,4 +2306,45 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA22FA2-93AC-4E1B-B2A6-580C3FDD1442}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF5059-8203-4060-A569-B9A80450CF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1839C-F76B-47A6-9BBE-D74FCDB61767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="资产网址" sheetId="4" r:id="rId5"/>
     <sheet name="灵感" sheetId="5" r:id="rId6"/>
     <sheet name="版本管理" sheetId="7" r:id="rId7"/>
+    <sheet name="一些实施方案" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -193,8 +194,564 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{4D75187A-FFB1-4604-9EC3-0A62F593DCAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{C4C15B75-E876-4CC7-9575-009BDD1A9034}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+001</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{41E70496-828D-4A81-8F5F-D663E8B236E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+B</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{31DD8580-992A-40D0-9B52-A00D8EF1BD02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+M</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{B4AFB7EF-7BA0-48E3-A3C5-10E6984EA71B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+F</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{69F20F79-6BD5-44F4-9004-3EA6587E6217}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Run</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{909B8127-2C3C-4E25-97E1-22A65ED138C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{E68A2FAB-27E4-4449-8710-887AFF08C193}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{7C75B9AB-8DBB-462D-87FA-4704870DF68D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+00(0号pose是不用任何pose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{E983353D-020E-4E82-A1E3-E68B5EF33655}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+P</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{002A1498-E75A-44A5-BAF9-19B155C01FFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+002</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{ECE372A0-AE35-46BB-B143-1F353B0B7A71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Q</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{E2FCD20F-D513-4BE2-A1F7-5CFBDF591062}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+F</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{96558079-5226-4085-99E5-FB68ABCE5902}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{E29FC8AD-28A6-4849-A683-1DBF39C94D9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Jump</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{67135DDE-D908-4502-88D7-7EFA5FFC3E36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{512A88AE-8230-498F-9647-F936379DB898}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+B</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{373D8166-54EF-4157-AC91-D1D51C8AE90D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+11(1号pose是站立)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{E8FEE34A-88B2-47FD-8B09-B04ADE1DE80D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+B</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{39421E3F-A9F6-4C1D-9E1C-6CBB283EC56D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+B</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{99C1696C-DC50-4373-9082-41AFAE967A23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+B</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="245">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,6 +1463,242 @@
   </si>
   <si>
     <t>Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于文件名的文件资源自动化系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX_XXXXX_XXXX_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常驻动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站立动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要优化(1类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如P002_QFS_Jump_1B11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始pose自身,结束pose自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始pose站立,结束pose站立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biped两足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃到战斗待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态加载动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始pose自身,结束pose战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类(所属)_前缀(识别)_描述_后缀(自动处理标记)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号其他(比如装备,飘带)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号通用角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要优化(2类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始pose战斗结束pose战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始pose休闲,结束pose休闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸懒腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如C004_QME_Stretch_1B33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期设计不明确的时候,可能需要多次大量更改规则.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀标记多了,可能不容易排查问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动处理时按顺序检查和提示即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但基于命名的规则,也很好修改(前提是资源本身没经过破坏性修改.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个资源都在初次导入时完成自动设置,并且经过自动处理的部分,配合记录自定义属性.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一目了然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别容易搜索和过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称不会长的很夸张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如C004_QMF_Stretch_1B33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似上边的命名,一个简单的例子比如N001_BMC_Run_0A00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如M003_QMC_JumpToFightIdle_1D02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如O005_BMC_Attack01_2D22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如C004_QFT_Vox56_1B11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56号音频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称可能不太好和源文件匹配,遇到修改的时候可能要连源文件一起改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1028,6 +1821,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2312,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA22FA2-93AC-4E1B-B2A6-580C3FDD1442}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2347,4 +3141,337 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008D2DE-C7F9-454A-B090-4D899CF4BE61}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1839C-F76B-47A6-9BBE-D74FCDB61767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFBA74F-C4D3-46D4-BF7D-510E49B95C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="247">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1700,6 +1700,12 @@
   <si>
     <t>名称可能不太好和源文件匹配,遇到修改的时候可能要连源文件一起改</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PiskelApp[在线]</t>
+  </si>
+  <si>
+    <t>aseprite[付费][强大]</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1822,6 +1828,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2179,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2559,10 +2568,16 @@
       <c r="C29" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="F29" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
         <v>107</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,10 +2696,12 @@
     <hyperlink ref="J2" r:id="rId5" xr:uid="{574F8EE3-5A50-45A3-85BD-4EDFBD15C97D}"/>
     <hyperlink ref="D33" r:id="rId6" location="/" xr:uid="{3A747011-A22A-48B2-A7A9-CD8AA7C707A0}"/>
     <hyperlink ref="B27" r:id="rId7" xr:uid="{77395E46-1AB0-49CE-9098-6A4769DC493F}"/>
+    <hyperlink ref="F29" r:id="rId8" xr:uid="{EA2021F2-6FC7-485A-B39A-A02A4C7F8B7B}"/>
+    <hyperlink ref="F30" r:id="rId9" xr:uid="{32ADC566-DD88-40ED-8B77-47ABB465DFF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3147,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008D2DE-C7F9-454A-B090-4D899CF4BE61}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFBA74F-C4D3-46D4-BF7D-510E49B95C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D648D-830D-4A97-B348-C5809CD4E1E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
     <sheet name="有趣小知识" sheetId="6" r:id="rId2"/>
     <sheet name="文献参考" sheetId="2" r:id="rId3"/>
     <sheet name="想法" sheetId="3" r:id="rId4"/>
-    <sheet name="资产网址" sheetId="4" r:id="rId5"/>
+    <sheet name="网站网址" sheetId="4" r:id="rId5"/>
     <sheet name="灵感" sheetId="5" r:id="rId6"/>
     <sheet name="版本管理" sheetId="7" r:id="rId7"/>
     <sheet name="一些实施方案" sheetId="8" r:id="rId8"/>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="258">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1706,13 +1706,71 @@
   </si>
   <si>
     <t>aseprite[付费][强大]</t>
+  </si>
+  <si>
+    <t>Godot虚拟摇杆</t>
+  </si>
+  <si>
+    <t>论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.marioforever.net/</t>
+  </si>
+  <si>
+    <t>https://cowlevel.net/</t>
+  </si>
+  <si>
+    <t>资讯,门户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开发技术讨论</t>
+  </si>
+  <si>
+    <t>godot3从入门到入土[图文]</t>
+  </si>
+  <si>
+    <t>Godot 4.X从入门到入门[图文]</t>
+  </si>
+  <si>
+    <t>Mario Forever游戏资源群群号：832497462</t>
+  </si>
+  <si>
+    <r>
+      <t>Mario Forever</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国外游戏资源分群群号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>994277120</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mario工具/地图等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1791,6 +1849,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1813,7 +1884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1831,6 +1902,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2188,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2710,7 +2782,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2737,7 +2809,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2761,7 +2833,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2769,9 +2843,10 @@
     <hyperlink ref="A1" r:id="rId1" display="https://zhuanlan.zhihu.com/p/162892899" xr:uid="{11A56248-C0F4-40DE-9AA8-7D083669AC38}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{5FA5BE53-54CB-46D0-9A38-5F51EF1385F6}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{E01B237C-9901-40AD-95C1-4BB658509282}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{F22D9906-3C49-4D36-B7BE-BE4F9FB73F71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2904,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2915,10 +2990,11 @@
     <col min="1" max="1" width="53.125" customWidth="1"/>
     <col min="2" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>166</v>
       </c>
@@ -2941,7 +3017,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
@@ -2958,7 +3034,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2966,7 +3042,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -2977,7 +3053,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2997,7 +3073,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3017,7 +3093,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -3025,7 +3101,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -3039,7 +3115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -3047,12 +3123,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -3060,7 +3136,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -3068,7 +3144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -3076,33 +3152,70 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>159</v>
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:G1048576">
+  <conditionalFormatting sqref="B1:G15 B17:G1048576 B16 D16:H16">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"有"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{034CE2C8-2F5B-4C31-B9D3-27036078945E}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{7B3E0261-A9EC-41F6-96F2-F178A2FD73D1}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{DB8FF5FF-C6EA-4E9B-84CB-37F3E69741C2}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{2C669CDB-8891-414F-BFA3-A16ACB7DDCA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D648D-830D-4A97-B348-C5809CD4E1E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D8062-6507-448B-9365-84C20147739E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="262">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1763,6 +1763,22 @@
   </si>
   <si>
     <t>Mario工具/地图等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于我来说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"玩家",更像是想要体验游戏快乐的&lt;用户&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以我的界面,交互,逻辑,都更注重"用户"体验,而不是注重"玩家"体验.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我开发的游戏,更像一个软件.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2852,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2931,7 +2947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -2942,12 +2958,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -2958,12 +2974,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>172</v>
       </c>
       <c r="B39" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D8062-6507-448B-9365-84C20147739E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2BAA5D-3947-42A3-814B-A499238A7F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="263">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1780,6 +1780,9 @@
   <si>
     <t>我开发的游戏,更像一个软件.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nakama游戏服务器开源包</t>
   </si>
 </sst>
 </file>
@@ -2276,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2398,6 +2401,9 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
+      <c r="H6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2415,9 +2421,6 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2435,8 +2438,8 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
-        <v>153</v>
+      <c r="H8" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2451,6 +2454,9 @@
       </c>
       <c r="F9" t="s">
         <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2870,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2BAA5D-3947-42A3-814B-A499238A7F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C39E25-E9FA-4D98-937F-408B0F60DC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
     <sheet name="有趣小知识" sheetId="6" r:id="rId2"/>
-    <sheet name="文献参考" sheetId="2" r:id="rId3"/>
+    <sheet name="技术文章" sheetId="2" r:id="rId3"/>
     <sheet name="想法" sheetId="3" r:id="rId4"/>
     <sheet name="网站网址" sheetId="4" r:id="rId5"/>
     <sheet name="灵感" sheetId="5" r:id="rId6"/>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="264">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1783,6 +1783,9 @@
   </si>
   <si>
     <t>nakama游戏服务器开源包</t>
+  </si>
+  <si>
+    <t>unity导入fbx自定义属性</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2828,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2859,6 +2862,11 @@
         <v>247</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2866,9 +2874,10 @@
     <hyperlink ref="A2" r:id="rId2" xr:uid="{5FA5BE53-54CB-46D0-9A38-5F51EF1385F6}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{E01B237C-9901-40AD-95C1-4BB658509282}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{F22D9906-3C49-4D36-B7BE-BE4F9FB73F71}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{489CF338-D564-492C-96DC-29AEB98C7C92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C39E25-E9FA-4D98-937F-408B0F60DC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C6F42-5D3F-409B-AB83-AD809B0C6659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="265">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1786,6 +1786,9 @@
   </si>
   <si>
     <t>unity导入fbx自定义属性</t>
+  </si>
+  <si>
+    <t>几个著名的3D测试场景与模型</t>
   </si>
 </sst>
 </file>
@@ -2831,15 +2834,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -2865,6 +2868,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2875,9 +2883,10 @@
     <hyperlink ref="A3" r:id="rId3" xr:uid="{E01B237C-9901-40AD-95C1-4BB658509282}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{F22D9906-3C49-4D36-B7BE-BE4F9FB73F71}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{489CF338-D564-492C-96DC-29AEB98C7C92}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{9E481B81-7780-4ADC-BE33-B2B30FA4819F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C6F42-5D3F-409B-AB83-AD809B0C6659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C0CE6-B1C0-4686-8E49-5E221FDA4CB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="266">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1789,6 +1789,9 @@
   </si>
   <si>
     <t>几个著名的3D测试场景与模型</t>
+  </si>
+  <si>
+    <t>Pixel Art rendering - Free blender addon</t>
   </si>
 </sst>
 </file>
@@ -1972,6 +1975,221 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1834930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D1CAD3-A827-4199-94DC-DE5D53D7D429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7327" y="2425214"/>
+          <a:ext cx="1827603" cy="1055074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1869450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>72259</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE8170E-DDF1-45FF-B0CB-7A0DC8F31AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1869450" y="1331568"/>
+          <a:ext cx="4968843" cy="1075739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://i.imgur.com/y8ZYZsM.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554B8B15-A9B0-498A-BC6E-7164DEAD072A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="1266825"/>
+          <a:ext cx="13582650" cy="9810750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="https://i.imgur.com/9jv6sjx.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389EE19F-292F-40F6-A7B9-E567D3BE9875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20497800" y="1266825"/>
+          <a:ext cx="11163300" cy="9858375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2834,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2875,6 +3093,11 @@
         <v>264</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2884,9 +3107,11 @@
     <hyperlink ref="A4" r:id="rId4" xr:uid="{F22D9906-3C49-4D36-B7BE-BE4F9FB73F71}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{489CF338-D564-492C-96DC-29AEB98C7C92}"/>
     <hyperlink ref="A6" r:id="rId6" xr:uid="{9E481B81-7780-4ADC-BE33-B2B30FA4819F}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{A9EBF7B6-E4DC-4AEB-8943-E39841810992}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2894,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C0CE6-B1C0-4686-8E49-5E221FDA4CB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5AF3DE-9728-4BC0-AC51-F49AE09B95C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="268">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1792,6 +1792,12 @@
   </si>
   <si>
     <t>Pixel Art rendering - Free blender addon</t>
+  </si>
+  <si>
+    <t>一名数学系大一学生想入坑独立游戏开发该看点什么书入门好呢？</t>
+  </si>
+  <si>
+    <t>想独立做一款游戏需要学习哪些知识？</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1992,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1834930</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3052,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3098,6 +3104,16 @@
         <v>265</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3108,10 +3124,12 @@
     <hyperlink ref="A5" r:id="rId5" xr:uid="{489CF338-D564-492C-96DC-29AEB98C7C92}"/>
     <hyperlink ref="A6" r:id="rId6" xr:uid="{9E481B81-7780-4ADC-BE33-B2B30FA4819F}"/>
     <hyperlink ref="A7" r:id="rId7" xr:uid="{A9EBF7B6-E4DC-4AEB-8943-E39841810992}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{FA910C2C-505F-4A0B-9043-04E3A76E3B60}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{D4231D43-721E-496D-8BBF-0F5CF2B8ED53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5AF3DE-9728-4BC0-AC51-F49AE09B95C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094BB84-DBF8-4125-8486-C1D007892E65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -190,6 +190,83 @@
         </r>
       </text>
     </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{94112BEF-576F-4006-88EC-6560B687F2B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+下面是SVN、Mercurial和Git这三个版本管理工具的全面对比：
+类型：
+SVN（Subversion）：集中式版本控制系统。
+Mercurial：分布式版本控制系统。
+Git：分布式版本控制系统。
+存储方式：
+SVN：使用中央服务器存储版本库，开发者通过客户端与服务器交互。
+Mercurial和Git：每个开发者都有完整的本地版本库，可以离线工作，并且可以与其他开发者进行同步。
+分支和合并：
+SVN：分支和合并功能相对较弱，合并操作较为繁琐。
+Mercurial和Git：提供强大的分支和合并功能，支持轻松创建和合并分支，使得团队协作更加灵活和高效。
+性能：
+SVN：在小型项目和中小型文件数量时性能表现良好，但在大型项目和大规模文件操作时可能出现性能问题。
+Mercurial和Git：在大型项目和大规模文件操作方面性能表现较好。
+学习曲线：
+SVN：相对简单，易于上手。
+Mercurial和Git：具有较高的学习曲线，Mercurial相对于Git来说较为简单，但仍需一定的学习和适应。
+社区支持和生态系统：
+Git：拥有庞大的用户和开发社区，可用的插件、工具和第三方集成较多，文档和在线资源丰富。
+Mercurial：用户和开发社区较小，第三方集成和在线资源相对有限。
+SVN：用户和开发社区相对较小，但仍有一些可用的插件和在线资源。
+处理大型二进制文件：
+SVN：相对较好地处理大型二进制文件，支持文件差异存储。
+Mercurial和Git：对大型二进制文件的版本控制支持有限，每次提交都会复制整个文件。
+总体而言，SVN适合小型项目和较简单的版本控制需求，易于学习和使用。Mercurial在易用性和功能之间取得了平衡，适合中小型团队和项目。Git在大型项目、高度分支化和复杂工作流下表现出色，具有庞大的用户和开发社区支持。
+选择适合的版本管理工具应考虑团队规模、项目复杂性、分支和合并需求、性能要求以及团队成员的熟悉程度和偏好等因素。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{749D7A42-338C-4C82-A7E4-682BC744141C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+被Unity收购</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -751,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="273">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1142,9 +1219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://indienova.com/</t>
-  </si>
-  <si>
     <t>资讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1225,10 +1299,6 @@
   </si>
   <si>
     <t>本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mercurial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1799,12 +1869,37 @@
   <si>
     <t>想独立做一款游戏需要学习哪些知识？</t>
   </si>
+  <si>
+    <t>https://indienova.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercurial SCM</t>
+  </si>
+  <si>
+    <t>Plastic SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TortoiseHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TortoiseSVN</t>
+  </si>
+  <si>
+    <t>tortoisegit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1896,6 +1991,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF303030"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1918,7 +2019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1937,6 +2038,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2509,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2519,7 +2624,9 @@
     <col min="2" max="2" width="33.25" customWidth="1"/>
     <col min="3" max="3" width="41.625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="29.25" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
@@ -2542,7 +2649,7 @@
         <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2553,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -2561,7 +2668,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="J2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2612,7 +2719,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2623,7 +2730,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -2632,7 +2739,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2669,7 +2776,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2677,16 +2784,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2860,48 +2967,48 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
         <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2912,7 +3019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2923,91 +3030,109 @@
         <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
         <v>143</v>
       </c>
-      <c r="D35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C40" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3022,10 +3147,12 @@
     <hyperlink ref="B27" r:id="rId7" xr:uid="{77395E46-1AB0-49CE-9098-6A4769DC493F}"/>
     <hyperlink ref="F29" r:id="rId8" xr:uid="{EA2021F2-6FC7-485A-B39A-A02A4C7F8B7B}"/>
     <hyperlink ref="F30" r:id="rId9" xr:uid="{32ADC566-DD88-40ED-8B77-47ABB465DFF4}"/>
+    <hyperlink ref="D39" r:id="rId10" display="https://www.mercurial-scm.org/" xr:uid="{6034E189-9585-405C-9BC2-48969CA958F8}"/>
+    <hyperlink ref="C40" r:id="rId11" display="https://tortoisesvn.net/" xr:uid="{FB8449C3-1868-4C85-94B8-C2C38A0F5D6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3041,12 +3168,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3060,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3081,37 +3208,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3156,22 +3283,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3184,83 +3311,83 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
         <v>133</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
         <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
         <v>146</v>
-      </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" t="s">
         <v>258</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>259</v>
-      </c>
-      <c r="C41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D41" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3278,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3293,25 +3420,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3319,16 +3446,16 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3336,7 +3463,7 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3344,10 +3471,10 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3355,69 +3482,69 @@
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3434,68 +3561,68 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
         <v>99</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3510,9 +3637,10 @@
     <hyperlink ref="E16" r:id="rId2" xr:uid="{7B3E0261-A9EC-41F6-96F2-F178A2FD73D1}"/>
     <hyperlink ref="D16" r:id="rId3" xr:uid="{DB8FF5FF-C6EA-4E9B-84CB-37F3E69741C2}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{2C669CDB-8891-414F-BFA3-A16ACB7DDCA5}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{08AC8C3C-D7BF-4EF0-B3DB-0A1D052BBE26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3541,27 +3669,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3590,156 +3718,156 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>189</v>
       </c>
-      <c r="E4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>190</v>
       </c>
-      <c r="G4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" t="s">
-        <v>192</v>
-      </c>
       <c r="I4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
         <v>194</v>
       </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>195</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>196</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>197</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>198</v>
       </c>
-      <c r="G6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" t="s">
-        <v>200</v>
-      </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" t="s">
         <v>207</v>
       </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" t="s">
         <v>208</v>
       </c>
-      <c r="E8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>209</v>
-      </c>
-      <c r="G8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
         <v>221</v>
       </c>
-      <c r="F10" t="s">
-        <v>223</v>
-      </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3747,152 +3875,152 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" t="s">
         <v>217</v>
-      </c>
-      <c r="D12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I12" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094BB84-DBF8-4125-8486-C1D007892E65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E372AAC-3CBB-4337-A7C9-3F12EE6A1CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="想法" sheetId="3" r:id="rId4"/>
     <sheet name="网站网址" sheetId="4" r:id="rId5"/>
     <sheet name="灵感" sheetId="5" r:id="rId6"/>
-    <sheet name="版本管理" sheetId="7" r:id="rId7"/>
+    <sheet name="版本管理配置" sheetId="7" r:id="rId7"/>
     <sheet name="一些实施方案" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="277">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1893,6 +1893,20 @@
   </si>
   <si>
     <t>tortoisegit</t>
+  </si>
+  <si>
+    <t>办公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.fuwushe.org/</t>
+  </si>
+  <si>
+    <t>快速部署 Nextcloud + OnlyOffice (docker) 私人网盘</t>
+  </si>
+  <si>
+    <t>OnlyOffice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2614,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3100,19 +3114,33 @@
         <v>118</v>
       </c>
     </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>172</v>
       </c>
+      <c r="C44" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>173</v>
       </c>
+      <c r="C45" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3149,10 +3177,11 @@
     <hyperlink ref="F30" r:id="rId9" xr:uid="{32ADC566-DD88-40ED-8B77-47ABB465DFF4}"/>
     <hyperlink ref="D39" r:id="rId10" display="https://www.mercurial-scm.org/" xr:uid="{6034E189-9585-405C-9BC2-48969CA958F8}"/>
     <hyperlink ref="C40" r:id="rId11" display="https://tortoisesvn.net/" xr:uid="{FB8449C3-1868-4C85-94B8-C2C38A0F5D6E}"/>
+    <hyperlink ref="C45" r:id="rId12" xr:uid="{EFE2A157-8D77-4AC3-8A3B-706956215C81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3662,7 +3691,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E372AAC-3CBB-4337-A7C9-3F12EE6A1CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745CA85-A485-432E-817D-31C286E9487B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,8 @@
     <sheet name="网站网址" sheetId="4" r:id="rId5"/>
     <sheet name="灵感" sheetId="5" r:id="rId6"/>
     <sheet name="版本管理配置" sheetId="7" r:id="rId7"/>
-    <sheet name="一些实施方案" sheetId="8" r:id="rId8"/>
+    <sheet name="一些细节点子" sheetId="9" r:id="rId8"/>
+    <sheet name="一些实施方案" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{74B47895-2E65-4A46-A833-03B1CC729553}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{74B47895-2E65-4A46-A833-03B1CC729553}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{89FB4EAD-56DF-46CA-821E-1F225699CE3A}">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{89FB4EAD-56DF-46CA-821E-1F225699CE3A}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{C08EFCE5-643A-4564-9E1A-01795AD99CEC}">
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{C08EFCE5-643A-4564-9E1A-01795AD99CEC}">
       <text>
         <r>
           <rPr>
@@ -241,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{749D7A42-338C-4C82-A7E4-682BC744141C}">
+    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{749D7A42-338C-4C82-A7E4-682BC744141C}">
       <text>
         <r>
           <rPr>
@@ -828,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1906,6 +1907,22 @@
   </si>
   <si>
     <t>OnlyOffice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的东西,都有至少一种互动方式</t>
+  </si>
+  <si>
+    <t>一件可以产生漂亮粒子的时装(比如尾部能飘落花瓣的斗篷),一定会很招人喜欢</t>
+  </si>
+  <si>
+    <t>不同的章节会看到不同的启动界面</t>
+  </si>
+  <si>
+    <t>bevy</t>
+  </si>
+  <si>
+    <t>一个处在原型阶段的新兴引擎,使用Rust</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2626,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2637,15 +2654,15 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="33.25" customWidth="1"/>
     <col min="3" max="3" width="41.625" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="29.25" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="4" max="5" width="43" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="29.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2655,18 +2672,21 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2679,13 +2699,16 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="1"/>
+      <c r="K2" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2696,10 +2719,11 @@
         <v>63</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2709,14 +2733,14 @@
       <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2729,14 +2753,14 @@
       <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2749,14 +2773,14 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2769,11 +2793,11 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2786,14 +2810,14 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2803,14 +2827,14 @@
       <c r="D9" t="s">
         <v>111</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2824,29 +2848,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2857,7 +2881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2867,11 +2891,11 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2885,7 +2909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -2898,11 +2922,11 @@
       <c r="D16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2915,11 +2939,11 @@
       <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2929,24 +2953,24 @@
       <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2959,8 +2983,9 @@
       <c r="D23" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2974,12 +2999,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -2990,7 +3015,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -3000,40 +3025,40 @@
       <c r="C27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -3046,8 +3071,9 @@
       <c r="D33" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>141</v>
       </c>
@@ -3055,12 +3081,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -3068,7 +3094,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3081,20 +3107,21 @@
       <c r="D39" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" t="s">
         <v>117</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>122</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>121</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -3107,19 +3134,20 @@
       <c r="D40" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" t="s">
         <v>272</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>172</v>
       </c>
@@ -3127,7 +3155,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -3135,7 +3163,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -3143,12 +3171,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>176</v>
       </c>
@@ -3170,18 +3198,19 @@
     <hyperlink ref="C30" r:id="rId2" display="https://github.com/egametang/ET" xr:uid="{BD638428-20D2-4086-B923-657A00B841F1}"/>
     <hyperlink ref="C27" r:id="rId3" display="https://github.com/Cysharp/MemoryPack" xr:uid="{85074A76-EE9C-4C6D-8E2B-BC050733FC53}"/>
     <hyperlink ref="C28" r:id="rId4" display="https://github.com/Cysharp/ZString" xr:uid="{1A0076EA-2C23-4DAB-95B1-FD75BD8E59FF}"/>
-    <hyperlink ref="J2" r:id="rId5" xr:uid="{574F8EE3-5A50-45A3-85BD-4EDFBD15C97D}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{574F8EE3-5A50-45A3-85BD-4EDFBD15C97D}"/>
     <hyperlink ref="D33" r:id="rId6" location="/" xr:uid="{3A747011-A22A-48B2-A7A9-CD8AA7C707A0}"/>
     <hyperlink ref="B27" r:id="rId7" xr:uid="{77395E46-1AB0-49CE-9098-6A4769DC493F}"/>
-    <hyperlink ref="F29" r:id="rId8" xr:uid="{EA2021F2-6FC7-485A-B39A-A02A4C7F8B7B}"/>
-    <hyperlink ref="F30" r:id="rId9" xr:uid="{32ADC566-DD88-40ED-8B77-47ABB465DFF4}"/>
+    <hyperlink ref="G29" r:id="rId8" xr:uid="{EA2021F2-6FC7-485A-B39A-A02A4C7F8B7B}"/>
+    <hyperlink ref="G30" r:id="rId9" xr:uid="{32ADC566-DD88-40ED-8B77-47ABB465DFF4}"/>
     <hyperlink ref="D39" r:id="rId10" display="https://www.mercurial-scm.org/" xr:uid="{6034E189-9585-405C-9BC2-48969CA958F8}"/>
     <hyperlink ref="C40" r:id="rId11" display="https://tortoisesvn.net/" xr:uid="{FB8449C3-1868-4C85-94B8-C2C38A0F5D6E}"/>
     <hyperlink ref="C45" r:id="rId12" xr:uid="{EFE2A157-8D77-4AC3-8A3B-706956215C81}"/>
+    <hyperlink ref="E1" r:id="rId13" xr:uid="{5D012AC5-14B2-4023-950D-1CAFE35B67C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -3293,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3728,6 +3757,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC85AC7D-A7E0-4E7D-A6BF-6442DA5B516A}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008D2DE-C7F9-454A-B090-4D899CF4BE61}">
   <dimension ref="A1:I32"/>
   <sheetViews>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745CA85-A485-432E-817D-31C286E9487B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CADF04-71EA-4863-B724-6A08759C1987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="283">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,9 +1199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://game-icons.net/</t>
-  </si>
-  <si>
     <t>https://gamedev3d.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1446,9 +1443,6 @@
   </si>
   <si>
     <t>godot更新内容列表</t>
-  </si>
-  <si>
-    <t>https://opengameart.org/</t>
   </si>
   <si>
     <t>有</t>
@@ -1923,6 +1917,18 @@
   </si>
   <si>
     <t>一个处在原型阶段的新兴引擎,使用Rust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://game-icons.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://opengameart.org/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2645,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2673,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -2683,7 +2689,7 @@
         <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2694,18 +2700,18 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="K2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2757,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2768,7 +2774,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -2777,7 +2783,7 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2814,7 +2820,7 @@
         <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2822,16 +2828,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3006,48 +3012,48 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
         <v>124</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3069,126 +3075,126 @@
         <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3226,12 +3232,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3266,37 +3272,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3341,22 +3347,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3369,83 +3375,83 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
         <v>129</v>
-      </c>
-      <c r="B29" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
         <v>131</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>132</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>133</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>137</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
         <v>144</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>145</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" t="s">
         <v>256</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>257</v>
-      </c>
-      <c r="C41" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3463,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3478,42 +3484,42 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3521,166 +3527,172 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>93</v>
+      <c r="A4" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>161</v>
+      <c r="A8" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3696,9 +3708,11 @@
     <hyperlink ref="D16" r:id="rId3" xr:uid="{DB8FF5FF-C6EA-4E9B-84CB-37F3E69741C2}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{2C669CDB-8891-414F-BFA3-A16ACB7DDCA5}"/>
     <hyperlink ref="A13" r:id="rId5" xr:uid="{08AC8C3C-D7BF-4EF0-B3DB-0A1D052BBE26}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{D9E1BE54-952F-48A5-BBD6-EADE3CA9E143}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{CBB8704E-5663-4162-9F42-AB4FBDE36288}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3727,27 +3741,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3768,17 +3782,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3808,309 +3822,309 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>187</v>
       </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>188</v>
       </c>
-      <c r="G4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" t="s">
-        <v>190</v>
-      </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
         <v>192</v>
       </c>
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>193</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>194</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>195</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>196</v>
       </c>
-      <c r="G6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" t="s">
-        <v>198</v>
-      </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" t="s">
         <v>205</v>
       </c>
-      <c r="B8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" t="s">
         <v>206</v>
       </c>
-      <c r="E8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>207</v>
-      </c>
-      <c r="G8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" t="s">
         <v>219</v>
       </c>
-      <c r="F10" t="s">
-        <v>221</v>
-      </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" t="s">
         <v>215</v>
-      </c>
-      <c r="D12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CADF04-71EA-4863-B724-6A08759C1987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65628DB-BE86-4679-8C4E-1331F4722D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="287">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,6 +1929,19 @@
   </si>
   <si>
     <t>https://opengameart.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Making Bonehead:a primer on procedural animation in Unity.</t>
+  </si>
+  <si>
+    <t>https://weaverdev.itch.io/procedural-animation-tutorial</t>
+  </si>
+  <si>
+    <t>https://www.arminhalac.com/</t>
+  </si>
+  <si>
+    <t>游戏绑定专家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2334,6 +2347,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96F6450-4DC4-477D-8D59-2622E1759C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4041913" y="4008783"/>
+          <a:ext cx="1921565" cy="1182821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3249,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3303,6 +3360,26 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3317,10 +3394,11 @@
     <hyperlink ref="A7" r:id="rId7" xr:uid="{A9EBF7B6-E4DC-4AEB-8943-E39841810992}"/>
     <hyperlink ref="A17" r:id="rId8" xr:uid="{FA910C2C-505F-4A0B-9043-04E3A76E3B60}"/>
     <hyperlink ref="A18" r:id="rId9" xr:uid="{D4231D43-721E-496D-8BBF-0F5CF2B8ED53}"/>
+    <hyperlink ref="A23" r:id="rId10" xr:uid="{3D2C0EC1-6D5D-409C-93D6-E3872CE4E2E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -3469,7 +3547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65628DB-BE86-4679-8C4E-1331F4722D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D430607-B943-42DE-AD0D-3BF51457FD04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="294">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1942,6 +1942,34 @@
   </si>
   <si>
     <t>游戏绑定专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作大型游戏,其实是在做框架和编辑器.内容可以低成本高质量的添加,测试,更新,迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括角色编辑器,外观编辑器,技能编辑器,特效编辑器,地图编辑器,剧情编辑器,对话编辑器,等等等等.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括交互逻辑,触发方式,等等,一切计算和反馈都应该是自动连接的,通过编辑器耦合,或者解耦的.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为人的操作比电脑慢,,两个按键不可能同时按下同时松开,除非在刷新之前完成两次操作.可以在帧处理的时候,连续判断几帧,确认状态是持续的状态,再执行.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是没办法的,比如WASD这种按键,没办法确定到底是先按了A再按的D,还是按了A组合了S.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要问题在松手的时候,会有一个键先抬起,导致状态发生改变,影响角色朝向(两个键的斜向变为一个键的正向.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不论哪个阶段,都要有一个实际的实验场景,能够以任何可能的组合跑任何情况的测试.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3279,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CD13D-49CB-448D-A90E-DC5A1C3BD754}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3295,6 +3323,41 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3308,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D430607-B943-42DE-AD0D-3BF51457FD04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A830F-D9FD-41D4-9A3C-CC2F9AED10ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="297">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1957,10 +1957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因为人的操作比电脑慢,,两个按键不可能同时按下同时松开,除非在刷新之前完成两次操作.可以在帧处理的时候,连续判断几帧,确认状态是持续的状态,再执行.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个是没办法的,比如WASD这种按键,没办法确定到底是先按了A再按的D,还是按了A组合了S.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1971,6 +1967,21 @@
   <si>
     <t>不论哪个阶段,都要有一个实际的实验场景,能够以任何可能的组合跑任何情况的测试.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;僵尸危机复刻&gt;的文档中有一些详细描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方向移动时(带有方向动画),因为人的操作比电脑慢,,两个按键不可能同时按下同时松开,除非在刷新之前完成两次操作.可以在帧处理的时候,连续判断几帧,确认状态是持续的状态,再执行.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>godot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://godoter.cn/</t>
   </si>
 </sst>
 </file>
@@ -3307,10 +3318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CD13D-49CB-448D-A90E-DC5A1C3BD754}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3342,22 +3353,27 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3608,10 +3624,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3834,6 +3850,16 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D430607-B943-42DE-AD0D-3BF51457FD04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A483A-6451-4571-BDDE-1696285D9B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="295">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1957,10 +1957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因为人的操作比电脑慢,,两个按键不可能同时按下同时松开,除非在刷新之前完成两次操作.可以在帧处理的时候,连续判断几帧,确认状态是持续的状态,再执行.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个是没办法的,比如WASD这种按键,没办法确定到底是先按了A再按的D,还是按了A组合了S.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1970,6 +1966,14 @@
   </si>
   <si>
     <t>不论哪个阶段,都要有一个实际的实验场景,能够以任何可能的组合跑任何情况的测试.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;僵尸危机复刻&gt;的文档中有一些详细描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方向移动时(带有方向动画),因为人的操作比电脑慢,,两个按键不可能同时按下同时松开,除非在刷新之前完成两次操作.可以在帧处理的时候,连续判断几帧,确认状态是持续的状态,再执行.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3307,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CD13D-49CB-448D-A90E-DC5A1C3BD754}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3342,22 +3346,27 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A483A-6451-4571-BDDE-1696285D9B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A830F-D9FD-41D4-9A3C-CC2F9AED10ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="297">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1975,6 +1975,13 @@
   <si>
     <t>八方向移动时(带有方向动画),因为人的操作比电脑慢,,两个按键不可能同时按下同时松开,除非在刷新之前完成两次操作.可以在帧处理的时候,连续判断几帧,确认状态是持续的状态,再执行.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>godot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://godoter.cn/</t>
   </si>
 </sst>
 </file>
@@ -3313,7 +3320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CD13D-49CB-448D-A90E-DC5A1C3BD754}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -3617,10 +3624,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3843,6 +3850,16 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A830F-D9FD-41D4-9A3C-CC2F9AED10ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D308F-A66E-4B8E-B534-4527A4AC3732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="298">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1982,6 +1982,10 @@
   </si>
   <si>
     <t>https://godoter.cn/</t>
+  </si>
+  <si>
+    <t>现阶段认为:编辑器其实只是在用可预览的方式维护配置表或资源,运行时根据配置表处理资源表现和行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3318,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CD13D-49CB-448D-A90E-DC5A1C3BD754}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3356,23 +3360,28 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>290</v>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3626,7 +3635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/_sync/游戏开发/游戏开发调研.xlsx
+++ b/_sync/游戏开发/游戏开发调研.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D308F-A66E-4B8E-B534-4527A4AC3732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEA9D9-3A90-48FA-9D09-9E8549876A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2760" windowWidth="26610" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
-    <sheet name="有趣小知识" sheetId="6" r:id="rId2"/>
-    <sheet name="技术文章" sheetId="2" r:id="rId3"/>
-    <sheet name="想法" sheetId="3" r:id="rId4"/>
+    <sheet name="版本管理配置" sheetId="7" r:id="rId2"/>
+    <sheet name="有趣小知识" sheetId="6" r:id="rId3"/>
+    <sheet name="技术文章" sheetId="2" r:id="rId4"/>
     <sheet name="网站网址" sheetId="4" r:id="rId5"/>
-    <sheet name="灵感" sheetId="5" r:id="rId6"/>
-    <sheet name="版本管理配置" sheetId="7" r:id="rId7"/>
+    <sheet name="想法" sheetId="3" r:id="rId6"/>
+    <sheet name="灵感" sheetId="5" r:id="rId7"/>
     <sheet name="一些细节点子" sheetId="9" r:id="rId8"/>
     <sheet name="一些实施方案" sheetId="8" r:id="rId9"/>
   </sheets>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="314">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1985,6 +1985,69 @@
   </si>
   <si>
     <t>现阶段认为:编辑器其实只是在用可预览的方式维护配置表或资源,运行时根据配置表处理资源表现和行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就像白猿的那个需求,相对算是重要的剧情,设计人员只能靠寥寥几笔创作.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期需要多次大批量迭代,确定稳定规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砺台石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后为强化台附魔,提升强化成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越接近100%,提升越小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可提升至100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后使强化台的强化成功率超过100%时,出现提示.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在策划的位置上:好的需求描述,甚至能激发设计人员的创意,引导程序人员避坑.但由于专业性的区别,不要过于干涉对应流程.也一定要乐于与任何人讨论.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要能按级别显示不同颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接在背包里使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色较艳丽的砺台石可以提高出现额外属性的概率(隐藏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用,都会增加强化台的磨损度.(所以每个台子能用的石头是有限的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化台每强化一次,积累的成功率会大幅下降一次.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gcores.com/</t>
+  </si>
+  <si>
+    <t>论坛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3321,11 +3384,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA22FA2-93AC-4E1B-B2A6-580C3FDD1442}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CD13D-49CB-448D-A90E-DC5A1C3BD754}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3392,7 +3496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
   <dimension ref="A1:A33"/>
   <sheetViews>
@@ -3490,153 +3594,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="68.5" customWidth="1"/>
-    <col min="3" max="3" width="55.375" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>254</v>
-      </c>
-      <c r="B41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D41" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" xr:uid="{3A35E2F1-A96D-4042-9861-DA038855249F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3846,34 +3809,47 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:G15 B17:G1048576 B16 D16:H16">
+  <conditionalFormatting sqref="B1:G15 B18:G1048576 B16:B17 D16:H17">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"有"</formula>
     </cfRule>
@@ -3893,51 +3869,207 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1609A08-E6F8-4B9B-BBBB-890A1532EC4F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="55.375" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1" xr:uid="{3A35E2F1-A96D-4042-9861-DA038855249F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA22FA2-93AC-4E1B-B2A6-580C3FDD1442}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1609A08-E6F8-4B9B-BBBB-890A1532EC4F}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="44.75" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="49.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>180</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3982,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008D2DE-C7F9-454A-B090-4D899CF4BE61}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H37:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3997,7 +4129,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4287,10 +4419,16 @@
       <c r="A29" t="s">
         <v>228</v>
       </c>
+      <c r="E29" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>229</v>
+      </c>
+      <c r="E30" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
